--- a/Project_2/CPI_2024.xlsx
+++ b/Project_2/CPI_2024.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSchneider\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\para2\Documents\GitHub\DATA607\Project_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3993E88C-848A-4891-87DC-148373CB87A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Table 1. Consumer Price Index for All Urban Consumers (CPI-U): U.S. city average, by expenditure category, January 2024</t>
-  </si>
-  <si>
-    <t>[1982-84=100, unless otherwise noted]</t>
   </si>
   <si>
     <t>Indent Level</t>
@@ -311,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#0.0"/>
     <numFmt numFmtId="165" formatCode="#0.000"/>
@@ -705,26 +700,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="70" customWidth="1"/>
     <col min="3" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="60">
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="60">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -735,169 +783,205 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="58">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="58">
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="C4" s="10">
+        <v>100</v>
+      </c>
+      <c r="D4" s="10">
+        <v>299.17</v>
+      </c>
+      <c r="E4" s="10">
+        <v>306.74599999999998</v>
+      </c>
+      <c r="F4" s="10">
+        <v>308.41699999999997</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>13</v>
+      <c r="C5" s="10">
+        <v>13.555</v>
+      </c>
+      <c r="D5" s="10">
+        <v>319.13600000000002</v>
+      </c>
+      <c r="E5" s="10">
+        <v>325.40899999999999</v>
+      </c>
+      <c r="F5" s="10">
+        <v>327.327</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10">
+        <v>8.1669999999999998</v>
+      </c>
+      <c r="D6" s="10">
+        <v>301.435</v>
+      </c>
+      <c r="E6" s="10">
+        <v>303.005</v>
+      </c>
+      <c r="F6" s="10">
+        <v>305.03699999999998</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>0</v>
+      <c r="J6" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="10">
-        <v>100</v>
+        <v>1.0660000000000001</v>
       </c>
       <c r="D7" s="10">
-        <v>299.17</v>
+        <v>349.29399999999998</v>
       </c>
       <c r="E7" s="10">
-        <v>306.74599999999998</v>
+        <v>353.84399999999999</v>
       </c>
       <c r="F7" s="10">
-        <v>308.41699999999997</v>
+        <v>354.53199999999998</v>
       </c>
       <c r="G7" s="9">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H7" s="9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I7" s="9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J7" s="9">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="K7" s="9">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="10">
-        <v>13.555</v>
+        <v>1.722</v>
       </c>
       <c r="D8" s="10">
-        <v>319.13600000000002</v>
+        <v>322.73700000000002</v>
       </c>
       <c r="E8" s="10">
-        <v>325.40899999999999</v>
+        <v>320.14299999999997</v>
       </c>
       <c r="F8" s="10">
-        <v>327.327</v>
+        <v>319.75200000000001</v>
       </c>
       <c r="G8" s="9">
-        <v>2.6</v>
+        <v>-0.9</v>
       </c>
       <c r="H8" s="9">
-        <v>0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="I8" s="9">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="J8" s="9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K8" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="10">
-        <v>8.1669999999999998</v>
+        <v>0.748</v>
       </c>
       <c r="D9" s="10">
-        <v>301.435</v>
+        <v>272.04000000000002</v>
       </c>
       <c r="E9" s="10">
-        <v>303.005</v>
+        <v>267.88900000000001</v>
       </c>
       <c r="F9" s="10">
-        <v>305.03699999999998</v>
+        <v>268.94099999999997</v>
       </c>
       <c r="G9" s="9">
-        <v>1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="H9" s="9">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="I9" s="9">
         <v>0</v>
@@ -906,7 +990,7 @@
         <v>0.1</v>
       </c>
       <c r="K9" s="9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -914,34 +998,34 @@
         <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="10">
-        <v>1.0660000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="D10" s="10">
-        <v>349.29399999999998</v>
+        <v>351.029</v>
       </c>
       <c r="E10" s="10">
-        <v>353.84399999999999</v>
+        <v>350.25</v>
       </c>
       <c r="F10" s="10">
-        <v>354.53199999999998</v>
+        <v>354.798</v>
       </c>
       <c r="G10" s="9">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H10" s="9">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="I10" s="9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J10" s="9">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>-0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -949,34 +1033,34 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10">
-        <v>1.722</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="D11" s="10">
-        <v>322.73700000000002</v>
+        <v>213.35900000000001</v>
       </c>
       <c r="E11" s="10">
-        <v>320.14299999999997</v>
+        <v>215.87200000000001</v>
       </c>
       <c r="F11" s="10">
-        <v>319.75200000000001</v>
+        <v>220.57300000000001</v>
       </c>
       <c r="G11" s="9">
-        <v>-0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H11" s="9">
-        <v>-0.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I11" s="9">
-        <v>-0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J11" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K11" s="9">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -984,142 +1068,107 @@
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="10">
-        <v>0.748</v>
+        <v>2.1930000000000001</v>
       </c>
       <c r="D12" s="10">
-        <v>272.04000000000002</v>
+        <v>264.74599999999998</v>
       </c>
       <c r="E12" s="10">
-        <v>267.88900000000001</v>
+        <v>270.22300000000001</v>
       </c>
       <c r="F12" s="10">
-        <v>268.94099999999997</v>
+        <v>271.60000000000002</v>
       </c>
       <c r="G12" s="9">
-        <v>-1.1000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="9">
+        <v>-0.2</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5.3879999999999999</v>
+      </c>
+      <c r="D13" s="10">
+        <v>345.67700000000002</v>
+      </c>
+      <c r="E13" s="10">
+        <v>361.56400000000002</v>
+      </c>
+      <c r="F13" s="10">
+        <v>363.24900000000002</v>
+      </c>
+      <c r="G13" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="9">
         <v>0.4</v>
       </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1.41</v>
-      </c>
-      <c r="D13" s="10">
-        <v>351.029</v>
-      </c>
-      <c r="E13" s="10">
-        <v>350.25</v>
-      </c>
-      <c r="F13" s="10">
-        <v>354.798</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0.1</v>
-      </c>
       <c r="J13" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K13" s="9">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
-        <v>3</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="D14" s="10">
-        <v>213.35900000000001</v>
-      </c>
-      <c r="E14" s="10">
-        <v>215.87200000000001</v>
-      </c>
-      <c r="F14" s="10">
-        <v>220.57300000000001</v>
-      </c>
-      <c r="G14" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="K14" s="9">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
-        <v>3</v>
-      </c>
-      <c r="B15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="10">
-        <v>2.1930000000000001</v>
+        <v>6.6550000000000002</v>
       </c>
       <c r="D15" s="10">
-        <v>264.74599999999998</v>
+        <v>283.33</v>
       </c>
       <c r="E15" s="10">
-        <v>270.22300000000001</v>
+        <v>269.375</v>
       </c>
       <c r="F15" s="10">
-        <v>271.60000000000002</v>
+        <v>270.42</v>
       </c>
       <c r="G15" s="9">
-        <v>2.6</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="H15" s="9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I15" s="9">
+        <v>-1.6</v>
+      </c>
+      <c r="J15" s="9">
         <v>-0.2</v>
       </c>
-      <c r="J15" s="9">
-        <v>0.2</v>
-      </c>
       <c r="K15" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -1127,136 +1176,171 @@
         <v>25</v>
       </c>
       <c r="C16" s="10">
-        <v>5.3879999999999999</v>
+        <v>3.5390000000000001</v>
       </c>
       <c r="D16" s="10">
-        <v>345.67700000000002</v>
+        <v>305.64299999999997</v>
       </c>
       <c r="E16" s="10">
-        <v>361.56400000000002</v>
+        <v>288.95299999999997</v>
       </c>
       <c r="F16" s="10">
-        <v>363.24900000000002</v>
+        <v>284.62700000000001</v>
       </c>
       <c r="G16" s="9">
-        <v>5.0999999999999996</v>
+        <v>-6.9</v>
       </c>
       <c r="H16" s="9">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I16" s="9">
-        <v>0.4</v>
+        <v>-3.8</v>
       </c>
       <c r="J16" s="9">
-        <v>0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="K16" s="9">
-        <v>0.5</v>
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="10">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D17" s="10">
+        <v>455.59500000000003</v>
+      </c>
+      <c r="E17" s="10">
+        <v>393.18900000000002</v>
+      </c>
+      <c r="F17" s="10">
+        <v>390.87700000000001</v>
+      </c>
+      <c r="G17" s="9">
+        <v>-14.2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>-0.6</v>
+      </c>
+      <c r="I17" s="9">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="J17" s="9">
+        <v>-3.3</v>
+      </c>
+      <c r="K17" s="9">
+        <v>-4.5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C18" s="10">
-        <v>6.6550000000000002</v>
+        <v>3.3719999999999999</v>
       </c>
       <c r="D18" s="10">
-        <v>283.33</v>
+        <v>297.41300000000001</v>
       </c>
       <c r="E18" s="10">
-        <v>269.375</v>
+        <v>282.24599999999998</v>
       </c>
       <c r="F18" s="10">
-        <v>270.42</v>
+        <v>277.709</v>
       </c>
       <c r="G18" s="9">
-        <v>-4.5999999999999996</v>
+        <v>-6.6</v>
       </c>
       <c r="H18" s="9">
-        <v>0.4</v>
+        <v>-1.6</v>
       </c>
       <c r="I18" s="9">
-        <v>-1.6</v>
+        <v>-4</v>
       </c>
       <c r="J18" s="9">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="K18" s="9">
-        <v>-0.9</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="10">
-        <v>3.5390000000000001</v>
+        <v>3.2610000000000001</v>
       </c>
       <c r="D19" s="10">
-        <v>305.64299999999997</v>
+        <v>294.75900000000001</v>
       </c>
       <c r="E19" s="10">
-        <v>288.95299999999997</v>
+        <v>280.28899999999999</v>
       </c>
       <c r="F19" s="10">
-        <v>284.62700000000001</v>
+        <v>276.00299999999999</v>
       </c>
       <c r="G19" s="9">
-        <v>-6.9</v>
+        <v>-6.4</v>
       </c>
       <c r="H19" s="9">
         <v>-1.5</v>
       </c>
       <c r="I19" s="9">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="J19" s="9">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="K19" s="9">
-        <v>-3.2</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2">
-        <v>3</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>3.1160000000000001</v>
       </c>
       <c r="D20" s="10">
-        <v>455.59500000000003</v>
+        <v>272.83999999999997</v>
       </c>
       <c r="E20" s="10">
-        <v>393.18900000000002</v>
+        <v>260.87700000000001</v>
       </c>
       <c r="F20" s="10">
-        <v>390.87700000000001</v>
+        <v>267.47500000000002</v>
       </c>
       <c r="G20" s="9">
-        <v>-14.2</v>
+        <v>-2</v>
       </c>
       <c r="H20" s="9">
-        <v>-0.6</v>
+        <v>2.5</v>
       </c>
       <c r="I20" s="9">
-        <v>-1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J20" s="9">
-        <v>-3.3</v>
+        <v>0.3</v>
       </c>
       <c r="K20" s="9">
-        <v>-4.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1264,279 +1348,279 @@
         <v>3</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="10">
-        <v>3.3719999999999999</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="D21" s="10">
-        <v>297.41300000000001</v>
+        <v>266.52800000000002</v>
       </c>
       <c r="E21" s="10">
-        <v>282.24599999999998</v>
+        <v>269.17</v>
       </c>
       <c r="F21" s="10">
-        <v>277.709</v>
+        <v>276.69799999999998</v>
       </c>
       <c r="G21" s="9">
-        <v>-6.6</v>
+        <v>3.8</v>
       </c>
       <c r="H21" s="9">
-        <v>-1.6</v>
+        <v>2.8</v>
       </c>
       <c r="I21" s="9">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J21" s="9">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="K21" s="9">
-        <v>-3.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C22" s="10">
-        <v>3.2610000000000001</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="D22" s="10">
-        <v>294.75900000000001</v>
+        <v>285.40699999999998</v>
       </c>
       <c r="E22" s="10">
-        <v>280.28899999999999</v>
+        <v>230.86199999999999</v>
       </c>
       <c r="F22" s="10">
-        <v>276.00299999999999</v>
+        <v>234.51499999999999</v>
       </c>
       <c r="G22" s="9">
-        <v>-6.4</v>
+        <v>-17.8</v>
       </c>
       <c r="H22" s="9">
-        <v>-1.5</v>
+        <v>1.6</v>
       </c>
       <c r="I22" s="9">
-        <v>-4</v>
+        <v>1.2</v>
       </c>
       <c r="J22" s="9">
         <v>-0.6</v>
       </c>
       <c r="K22" s="9">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2">
         <v>2</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="10">
-        <v>3.1160000000000001</v>
-      </c>
-      <c r="D23" s="10">
-        <v>272.83999999999997</v>
-      </c>
-      <c r="E23" s="10">
-        <v>260.87700000000001</v>
-      </c>
-      <c r="F23" s="10">
-        <v>267.47500000000002</v>
-      </c>
-      <c r="G23" s="9">
-        <v>-2</v>
-      </c>
-      <c r="H23" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="I23" s="9">
-        <v>1</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="K23" s="9">
-        <v>1.4</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2">
-        <v>3</v>
-      </c>
-      <c r="B24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="10">
-        <v>2.4279999999999999</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="D24" s="10">
-        <v>266.52800000000002</v>
+        <v>301.96199999999999</v>
       </c>
       <c r="E24" s="10">
-        <v>269.17</v>
+        <v>311.90699999999998</v>
       </c>
       <c r="F24" s="10">
-        <v>276.69799999999998</v>
+        <v>313.62299999999999</v>
       </c>
       <c r="G24" s="9">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H24" s="9">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="I24" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J24" s="9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K24" s="9">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="10">
+        <v>18.890999999999998</v>
+      </c>
+      <c r="D25" s="10">
+        <v>165.34</v>
+      </c>
+      <c r="E25" s="10">
+        <v>164.59</v>
+      </c>
+      <c r="F25" s="10">
+        <v>164.86600000000001</v>
+      </c>
+      <c r="G25" s="9">
+        <v>-0.3</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="9">
+        <v>-0.2</v>
+      </c>
+      <c r="J25" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="K25" s="9">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
         <v>3</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="D25" s="10">
-        <v>285.40699999999998</v>
-      </c>
-      <c r="E25" s="10">
-        <v>230.86199999999999</v>
-      </c>
-      <c r="F25" s="10">
-        <v>234.51499999999999</v>
-      </c>
-      <c r="G25" s="9">
-        <v>-17.8</v>
-      </c>
-      <c r="H25" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="I25" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="J25" s="9">
+      <c r="B26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2.512</v>
+      </c>
+      <c r="D26" s="10">
+        <v>127.875</v>
+      </c>
+      <c r="E26" s="10">
+        <v>125.794</v>
+      </c>
+      <c r="F26" s="10">
+        <v>127.946</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="I26" s="9">
         <v>-0.6</v>
       </c>
-      <c r="K25" s="9">
-        <v>2</v>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="10">
-        <v>79.790000000000006</v>
+        <v>3.6840000000000002</v>
       </c>
       <c r="D27" s="10">
-        <v>301.96199999999999</v>
+        <v>177.27600000000001</v>
       </c>
       <c r="E27" s="10">
-        <v>311.90699999999998</v>
+        <v>178.26900000000001</v>
       </c>
       <c r="F27" s="10">
-        <v>313.62299999999999</v>
+        <v>178.595</v>
       </c>
       <c r="G27" s="9">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H27" s="9">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="I27" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J27" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K27" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2">
-        <v>2</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C28" s="10">
-        <v>18.890999999999998</v>
+        <v>2.012</v>
       </c>
       <c r="D28" s="10">
-        <v>165.34</v>
+        <v>185.857</v>
       </c>
       <c r="E28" s="10">
-        <v>164.59</v>
+        <v>186.38300000000001</v>
       </c>
       <c r="F28" s="10">
-        <v>164.86600000000001</v>
+        <v>179.41</v>
       </c>
       <c r="G28" s="9">
-        <v>-0.3</v>
+        <v>-3.5</v>
       </c>
       <c r="H28" s="9">
-        <v>0.2</v>
+        <v>-3.7</v>
       </c>
       <c r="I28" s="9">
-        <v>-0.2</v>
+        <v>1.4</v>
       </c>
       <c r="J28" s="9">
-        <v>-0.1</v>
+        <v>0.6</v>
       </c>
       <c r="K28" s="9">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17.25">
       <c r="A29" s="2">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="10">
-        <v>2.512</v>
+        <v>1.4890000000000001</v>
       </c>
       <c r="D29" s="10">
-        <v>127.875</v>
+        <v>395.98099999999999</v>
       </c>
       <c r="E29" s="10">
-        <v>125.794</v>
+        <v>410.36500000000001</v>
       </c>
       <c r="F29" s="10">
-        <v>127.946</v>
+        <v>407.87900000000002</v>
       </c>
       <c r="G29" s="9">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="H29" s="9">
-        <v>1.7</v>
+        <v>-0.6</v>
       </c>
       <c r="I29" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="K29" s="9">
         <v>-0.6</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>-0.7</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1544,104 +1628,104 @@
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="10">
-        <v>3.6840000000000002</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D30" s="10">
-        <v>177.27600000000001</v>
+        <v>282.286</v>
       </c>
       <c r="E30" s="10">
-        <v>178.26900000000001</v>
+        <v>287.87299999999999</v>
       </c>
       <c r="F30" s="10">
-        <v>178.595</v>
+        <v>288.75799999999998</v>
       </c>
       <c r="G30" s="9">
-        <v>0.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H30" s="9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I30" s="9">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J30" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17.25">
       <c r="A31" s="2">
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="10">
-        <v>2.012</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D31" s="10">
-        <v>185.857</v>
+        <v>1388.79</v>
       </c>
       <c r="E31" s="10">
-        <v>186.38300000000001</v>
+        <v>1486.9</v>
       </c>
       <c r="F31" s="10">
-        <v>179.41</v>
+        <v>1491.538</v>
       </c>
       <c r="G31" s="9">
-        <v>-3.5</v>
+        <v>7.4</v>
       </c>
       <c r="H31" s="9">
-        <v>-3.7</v>
+        <v>0.3</v>
       </c>
       <c r="I31" s="9">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J31" s="9">
-        <v>0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="K31" s="9">
-        <v>-3.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="16.5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
-        <v>3</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C32" s="10">
-        <v>1.4890000000000001</v>
+        <v>60.899000000000001</v>
       </c>
       <c r="D32" s="10">
-        <v>395.98099999999999</v>
+        <v>387.25799999999998</v>
       </c>
       <c r="E32" s="10">
-        <v>410.36500000000001</v>
+        <v>405.33800000000002</v>
       </c>
       <c r="F32" s="10">
-        <v>407.87900000000002</v>
+        <v>408.05099999999999</v>
       </c>
       <c r="G32" s="9">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="H32" s="9">
-        <v>-0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I32" s="9">
         <v>0.5</v>
       </c>
       <c r="J32" s="9">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K32" s="9">
-        <v>-0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1649,95 +1733,95 @@
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" s="10">
-        <v>0.85399999999999998</v>
+        <v>36.191000000000003</v>
       </c>
       <c r="D33" s="10">
-        <v>282.286</v>
+        <v>369.58499999999998</v>
       </c>
       <c r="E33" s="10">
-        <v>287.87299999999999</v>
+        <v>389.43299999999999</v>
       </c>
       <c r="F33" s="10">
-        <v>288.75799999999998</v>
+        <v>391.89600000000002</v>
       </c>
       <c r="G33" s="9">
-        <v>2.2999999999999998</v>
+        <v>6</v>
       </c>
       <c r="H33" s="9">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I33" s="9">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J33" s="9">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K33" s="9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="16.5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
-        <v>3</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C34" s="10">
-        <v>0.54200000000000004</v>
+        <v>7.6710000000000003</v>
       </c>
       <c r="D34" s="10">
-        <v>1388.79</v>
+        <v>388.37200000000001</v>
       </c>
       <c r="E34" s="10">
-        <v>1486.9</v>
+        <v>410.60599999999999</v>
       </c>
       <c r="F34" s="10">
-        <v>1491.538</v>
+        <v>412.01900000000001</v>
       </c>
       <c r="G34" s="9">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="H34" s="9">
         <v>0.3</v>
       </c>
       <c r="I34" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="J34" s="9">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K34" s="9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="17.25">
       <c r="A35" s="2">
-        <v>2</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C35" s="10">
-        <v>60.899000000000001</v>
+        <v>26.768999999999998</v>
       </c>
       <c r="D35" s="10">
-        <v>387.25799999999998</v>
+        <v>379.32799999999997</v>
       </c>
       <c r="E35" s="10">
-        <v>405.33800000000002</v>
+        <v>400.82799999999997</v>
       </c>
       <c r="F35" s="10">
-        <v>408.05099999999999</v>
+        <v>402.96499999999997</v>
       </c>
       <c r="G35" s="9">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="H35" s="9">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I35" s="9">
         <v>0.5</v>
@@ -1746,7 +1830,7 @@
         <v>0.4</v>
       </c>
       <c r="K35" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1754,104 +1838,104 @@
         <v>3</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="10">
-        <v>36.191000000000003</v>
+        <v>6.5149999999999997</v>
       </c>
       <c r="D36" s="10">
-        <v>369.58499999999998</v>
+        <v>601.55100000000004</v>
       </c>
       <c r="E36" s="10">
-        <v>389.43299999999999</v>
+        <v>599.46400000000006</v>
       </c>
       <c r="F36" s="10">
-        <v>391.89600000000002</v>
+        <v>605.25699999999995</v>
       </c>
       <c r="G36" s="9">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H36" s="9">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I36" s="9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J36" s="9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K36" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="17.25">
       <c r="A37" s="2">
         <v>4</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="10">
-        <v>7.6710000000000003</v>
+        <v>1.8280000000000001</v>
       </c>
       <c r="D37" s="10">
-        <v>388.37200000000001</v>
+        <v>415.197</v>
       </c>
       <c r="E37" s="10">
-        <v>410.60599999999999</v>
+        <v>412.93</v>
       </c>
       <c r="F37" s="10">
-        <v>412.01900000000001</v>
+        <v>415.42700000000002</v>
       </c>
       <c r="G37" s="9">
-        <v>6.1</v>
+        <v>0.1</v>
       </c>
       <c r="H37" s="9">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I37" s="9">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J37" s="9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K37" s="9">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="16.5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="17.25">
       <c r="A38" s="2">
         <v>4</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="10">
-        <v>26.768999999999998</v>
+        <v>1.9870000000000001</v>
       </c>
       <c r="D38" s="10">
-        <v>379.32799999999997</v>
+        <v>385.06400000000002</v>
       </c>
       <c r="E38" s="10">
-        <v>400.82799999999997</v>
+        <v>404.40699999999998</v>
       </c>
       <c r="F38" s="10">
-        <v>402.96499999999997</v>
+        <v>410.69499999999999</v>
       </c>
       <c r="G38" s="9">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="H38" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="J38" s="9">
         <v>0.5</v>
       </c>
-      <c r="I38" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0.4</v>
-      </c>
       <c r="K38" s="9">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1859,244 +1943,163 @@
         <v>3</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="10">
-        <v>6.5149999999999997</v>
+        <v>6.2939999999999996</v>
       </c>
       <c r="D39" s="10">
-        <v>601.55100000000004</v>
+        <v>376.74299999999999</v>
       </c>
       <c r="E39" s="10">
-        <v>599.46400000000006</v>
+        <v>409.74900000000002</v>
       </c>
       <c r="F39" s="10">
-        <v>605.25699999999995</v>
+        <v>412.64299999999997</v>
       </c>
       <c r="G39" s="9">
-        <v>0.6</v>
+        <v>9.5</v>
       </c>
       <c r="H39" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I39" s="9">
         <v>1</v>
       </c>
-      <c r="I39" s="9">
-        <v>0.5</v>
-      </c>
       <c r="J39" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K39" s="9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="16.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="17.25">
       <c r="A40" s="2">
         <v>4</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" s="10">
-        <v>1.8280000000000001</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="D40" s="10">
-        <v>415.197</v>
+        <v>371.78</v>
       </c>
       <c r="E40" s="10">
-        <v>412.93</v>
+        <v>392.89699999999999</v>
       </c>
       <c r="F40" s="10">
-        <v>415.42700000000002</v>
+        <v>396.00400000000002</v>
       </c>
       <c r="G40" s="9">
-        <v>0.1</v>
+        <v>6.5</v>
       </c>
       <c r="H40" s="9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I40" s="9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J40" s="9">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="K40" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="16.5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>4</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="10">
-        <v>1.9870000000000001</v>
+        <v>2.794</v>
       </c>
       <c r="D41" s="10">
-        <v>385.06400000000002</v>
+        <v>658.51300000000003</v>
       </c>
       <c r="E41" s="10">
-        <v>404.40699999999998</v>
+        <v>780.28399999999999</v>
       </c>
       <c r="F41" s="10">
-        <v>410.69499999999999</v>
+        <v>794.14200000000005</v>
       </c>
       <c r="G41" s="9">
-        <v>6.7</v>
+        <v>20.6</v>
       </c>
       <c r="H41" s="9">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I41" s="9">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="J41" s="9">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="K41" s="9">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="2">
-        <v>3</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>49</v>
+        <v>4</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C42" s="10">
-        <v>6.2939999999999996</v>
+        <v>0.751</v>
       </c>
       <c r="D42" s="10">
-        <v>376.74299999999999</v>
+        <v>264.62900000000002</v>
       </c>
       <c r="E42" s="10">
-        <v>409.74900000000002</v>
+        <v>243.34800000000001</v>
       </c>
       <c r="F42" s="10">
-        <v>412.64299999999997</v>
+        <v>247.60599999999999</v>
       </c>
       <c r="G42" s="9">
-        <v>9.5</v>
+        <v>-6.4</v>
       </c>
       <c r="H42" s="9">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="I42" s="9">
-        <v>1</v>
+        <v>-0.2</v>
       </c>
       <c r="J42" s="9">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="K42" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="16.5">
-      <c r="A43" s="2">
-        <v>4</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="10">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="D43" s="10">
-        <v>371.78</v>
-      </c>
-      <c r="E43" s="10">
-        <v>392.89699999999999</v>
-      </c>
-      <c r="F43" s="10">
-        <v>396.00400000000002</v>
-      </c>
-      <c r="G43" s="9">
-        <v>6.5</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="J43" s="9">
-        <v>-0.3</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0.8</v>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="2">
-        <v>4</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="10">
-        <v>2.794</v>
-      </c>
-      <c r="D44" s="10">
-        <v>658.51300000000003</v>
-      </c>
-      <c r="E44" s="10">
-        <v>780.28399999999999</v>
-      </c>
-      <c r="F44" s="10">
-        <v>794.14200000000005</v>
-      </c>
-      <c r="G44" s="9">
-        <v>20.6</v>
-      </c>
-      <c r="H44" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="I44" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="J44" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="K44" s="9">
-        <v>1.4</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="2">
-        <v>4</v>
-      </c>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C45" s="10">
-        <v>0.751</v>
-      </c>
-      <c r="D45" s="10">
-        <v>264.62900000000002</v>
-      </c>
-      <c r="E45" s="10">
-        <v>243.34800000000001</v>
-      </c>
-      <c r="F45" s="10">
-        <v>247.60599999999999</v>
-      </c>
-      <c r="G45" s="9">
-        <v>-6.4</v>
-      </c>
-      <c r="H45" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="I45" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="J45" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="K45" s="9">
-        <v>1.4</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2104,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2112,31 +2115,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="11" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
